--- a/biology/Médecine/Cartilage_articulaire/Cartilage_articulaire.xlsx
+++ b/biology/Médecine/Cartilage_articulaire/Cartilage_articulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage articulaire est un cartilage hyalin qui ne possède pas de périchondre qui se situe au niveau des surfaces articulaires des os.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage articulaire est constitué de chondrocytes et de fibres de collagène (de type II) baignant dans une substance fondamentale riche en protéoglycanes et en eau (70 à 80%). Les fibres de collagène représente 50% du poids sec.
 Les fibres de collagène superficielles sont parallèles à la surface articulaire et perpendiculaires à la surface osseuse pour les fibres profondes.
@@ -543,7 +557,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage articulaire ne possède ni vaisseaux sanguins, ni vaisseaux lymphatiques.
 Il est nourri par diffusion passive à partir du liquide synovial et à partir de l'os support. Pour ce dernier mode nutritif ne concerne que le cartilage articulaire jeune.
@@ -575,7 +591,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cartilage articulaire n'a pas d'innervation et la perception douloureuse se fait par les terminaisons nerveuses de la membrane synoviale, de la capsule articulaire, de l'os périphérique et des muscles périphériques.
 </t>
@@ -606,7 +624,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le cartilage articulaire a deux fonctions :
 amortissement et répartition des pressions exercées au niveau de l'articulation grâce à son élasticité,
